--- a/TestData/Create_activity.xlsx
+++ b/TestData/Create_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9149F9-F340-4AAF-A3FB-9D07C7B94841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2CB79-67FA-4C04-B55B-3D102D247040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/Create_activity.xlsx
+++ b/TestData/Create_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC2CB79-67FA-4C04-B55B-3D102D247040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6DB7A-232F-48F4-9DDE-8D82A1913DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>mohini@mistpl.com</t>
   </si>
@@ -39,12 +39,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>time_from</t>
-  </si>
-  <si>
-    <t>time_to</t>
-  </si>
-  <si>
     <t>file_path_photo</t>
   </si>
   <si>
@@ -55,15 +49,17 @@
   </si>
   <si>
     <t>C:\Users\mohni\Downloads\RecActivity app.mp4</t>
+  </si>
+  <si>
+    <t>Lakhera@1998</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -111,12 +107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,13 +404,11 @@
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -431,41 +424,30 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
         <v>45423</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7AD9EB59-4138-472C-84C2-BA8D01F2CC03}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7D1D5015-2215-467F-906C-E6400B87287E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TestData/Create_activity.xlsx
+++ b/TestData/Create_activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohni\PycharmProjects\cchc_automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C6DB7A-232F-48F4-9DDE-8D82A1913DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84778536-0F28-44C1-B02E-BD4CB94B2B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>mohini@mistpl.com</t>
   </si>
@@ -45,13 +45,19 @@
     <t>file_path_video</t>
   </si>
   <si>
-    <t>C:\Users\mohni\Downloads\img mohni updated (1).jpeg</t>
-  </si>
-  <si>
     <t>C:\Users\mohni\Downloads\RecActivity app.mp4</t>
   </si>
   <si>
     <t>Lakhera@1998</t>
+  </si>
+  <si>
+    <t>time_from</t>
+  </si>
+  <si>
+    <t>time_to</t>
+  </si>
+  <si>
+    <t>C:\Users\mohni\Downloads\sign.jpeg</t>
   </si>
 </sst>
 </file>
@@ -107,11 +113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +415,7 @@
     <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -419,27 +426,39 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>45423</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
